--- a/Wine_Quality/outputs/train_90_test_10/depth_None/wq_train_90_test_10_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_None/wq_train_90_test_10_depth_None_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0.5683453237410072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6171875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5917602996254682</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8789144050104384</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8453815261044176</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8618219037871033</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6043165467625899</v>
+        <v>0.8767967145790554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.65625</v>
+        <v>0.857429718875502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6292134831460674</v>
+        <v>0.867005076142132</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7892307692307692</v>
+        <v>0.7907692307692308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7892307692307692</v>
+        <v>0.7907692307692308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7892307692307692</v>
+        <v>0.7907692307692308</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7892307692307692</v>
+        <v>0.7907692307692308</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5777436505910095</v>
+        <v>0.5928251238844653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.611654953145917</v>
+        <v>0.6026501840696118</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5922498908824855</v>
+        <v>0.5973662363669778</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8016182948935536</v>
+        <v>0.7959891773834131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7892307692307692</v>
+        <v>0.7907692307692308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7947442719781799</v>
+        <v>0.7930982250320641</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>

--- a/Wine_Quality/outputs/train_90_test_10/depth_None/wq_train_90_test_10_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_None/wq_train_90_test_10_depth_None_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5683453237410072</v>
+        <v>0.57</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6171875</v>
+        <v>0.62</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5917602996254682</v>
+        <v>0.59</v>
       </c>
       <c r="E2" t="n">
         <v>128</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8767967145790554</v>
+        <v>0.88</v>
       </c>
       <c r="C4" t="n">
-        <v>0.857429718875502</v>
+        <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>0.867005076142132</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>498</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7907692307692308</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7907692307692308</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7907692307692308</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7907692307692308</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5928251238844653</v>
+        <v>0.59</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6026501840696118</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5973662363669778</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7959891773834131</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7907692307692308</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7930982250320641</v>
+        <v>0.79</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>
